--- a/Team-Data/2012-13/3-30-2012-13.xlsx
+++ b/Team-Data/2012-13/3-30-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
         <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.554</v>
+        <v>0.548</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -690,19 +757,19 @@
         <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M2" t="n">
         <v>23.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="P2" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.711</v>
@@ -711,7 +778,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
@@ -720,7 +787,7 @@
         <v>24.6</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
@@ -732,7 +799,7 @@
         <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
         <v>18.7</v>
@@ -741,10 +808,10 @@
         <v>97.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -753,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -789,19 +856,19 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
         <v>20</v>
@@ -810,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -941,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -959,7 +1026,7 @@
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -971,22 +1038,22 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
         <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.575</v>
+        <v>0.583</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1051,7 +1118,7 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>7.7</v>
@@ -1066,31 +1133,31 @@
         <v>17.4</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R4" t="n">
         <v>12.8</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
         <v>42.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
         <v>14.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>4.8</v>
@@ -1102,13 +1169,13 @@
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1153,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1162,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
-        <v>0.233</v>
+        <v>0.236</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,28 +1297,28 @@
         <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="N5" t="n">
         <v>0.337</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
         <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
         <v>11.3</v>
@@ -1260,19 +1327,19 @@
         <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
         <v>13.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>7.3</v>
@@ -1287,10 +1354,10 @@
         <v>93.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1338,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="AT5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -1394,52 +1461,52 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.549</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P6" t="n">
         <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
         <v>43.5</v>
@@ -1460,40 +1527,40 @@
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1520,10 +1587,10 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1544,10 +1611,10 @@
         <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1696,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1708,10 +1775,10 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
         <v>37</v>
       </c>
       <c r="G8" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1776,16 +1843,16 @@
         <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N8" t="n">
         <v>0.373</v>
@@ -1800,7 +1867,7 @@
         <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
         <v>32.6</v>
@@ -1812,13 +1879,13 @@
         <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.1</v>
@@ -1836,16 +1903,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1872,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
@@ -2227,10 +2294,10 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2266,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
         <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="O11" t="n">
         <v>17</v>
@@ -2343,19 +2410,19 @@
         <v>21.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R11" t="n">
         <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2376,25 +2443,25 @@
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2442,22 +2509,22 @@
         <v>27</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -2486,34 +2553,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.548</v>
+        <v>0.542</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J12" t="n">
         <v>82.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="N12" t="n">
         <v>0.369</v>
@@ -2531,16 +2598,16 @@
         <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
@@ -2555,16 +2622,16 @@
         <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2615,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
         <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.635</v>
+        <v>0.63</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2692,34 +2759,34 @@
         <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
         <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T13" t="n">
         <v>46.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
@@ -2737,16 +2804,16 @@
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC13" t="n">
         <v>5.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2776,13 +2843,13 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2800,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -2850,49 +2917,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N14" t="n">
         <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
         <v>30</v>
@@ -2901,7 +2968,7 @@
         <v>41.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>14.8</v>
@@ -2916,28 +2983,28 @@
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2961,7 +3028,7 @@
         <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="n">
         <v>19</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,13 +3061,13 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
         <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
         <v>81.3</v>
@@ -3059,61 +3126,61 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
         <v>27.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T15" t="n">
         <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>18.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
         <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3155,13 +3222,13 @@
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>24</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K16" t="n">
         <v>0.444</v>
@@ -3244,31 +3311,31 @@
         <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P16" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R16" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S16" t="n">
         <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.5</v>
@@ -3277,31 +3344,31 @@
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA16" t="n">
         <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
@@ -3310,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3510,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -3578,52 +3645,52 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
         <v>35</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I18" t="n">
         <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>87.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O18" t="n">
         <v>15.6</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R18" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T18" t="n">
         <v>43.9</v>
@@ -3632,16 +3699,16 @@
         <v>22.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z18" t="n">
         <v>19.1</v>
@@ -3653,19 +3720,19 @@
         <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
         <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
@@ -3677,22 +3744,22 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
@@ -3710,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
         <v>11</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,7 +3845,7 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.438</v>
@@ -3793,13 +3860,13 @@
         <v>0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
         <v>12.3</v>
@@ -3808,7 +3875,7 @@
         <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U19" t="n">
         <v>22.1</v>
@@ -3817,10 +3884,10 @@
         <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
         <v>6</v>
@@ -3829,34 +3896,34 @@
         <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,10 +3944,10 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
@@ -3889,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>7</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>12</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4083,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4220,10 +4287,10 @@
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4250,7 +4317,7 @@
         <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4330,34 +4397,34 @@
         <v>0.481</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
         <v>19.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O22" t="n">
         <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.827</v>
+        <v>0.828</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V22" t="n">
         <v>15.6</v>
@@ -4366,7 +4433,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
         <v>5</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" t="n">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,46 +4573,46 @@
         <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="P23" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
         <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4554,10 +4621,10 @@
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB23" t="n">
         <v>94.40000000000001</v>
@@ -4566,7 +4633,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,10 +4648,10 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
@@ -4593,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4617,10 +4684,10 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
         <v>10</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,13 +4699,13 @@
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
         <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>0.411</v>
+        <v>0.403</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,37 +4755,37 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.72</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
         <v>23</v>
@@ -4730,25 +4797,25 @@
         <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>18</v>
@@ -4796,10 +4863,10 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4814,7 +4881,7 @@
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>0.311</v>
+        <v>0.315</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,7 +4937,7 @@
         <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.44</v>
@@ -4879,19 +4946,19 @@
         <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P25" t="n">
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.735</v>
+        <v>0.732</v>
       </c>
       <c r="R25" t="n">
         <v>11.8</v>
@@ -4900,10 +4967,10 @@
         <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.4</v>
@@ -4918,19 +4985,19 @@
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4957,7 +5024,7 @@
         <v>27</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>11</v>
@@ -4996,13 +5063,13 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="n">
-        <v>0.452</v>
+        <v>0.458</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5055,7 +5122,7 @@
         <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
         <v>8.300000000000001</v>
@@ -5067,13 +5134,13 @@
         <v>0.357</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
@@ -5088,7 +5155,7 @@
         <v>21.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5103,16 +5170,16 @@
         <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB26" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,16 +5191,16 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5151,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>19</v>
@@ -5166,13 +5233,13 @@
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.449</v>
@@ -5246,19 +5313,19 @@
         <v>20.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P27" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S27" t="n">
         <v>29</v>
@@ -5273,7 +5340,7 @@
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.2</v>
@@ -5282,10 +5349,10 @@
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
         <v>100</v>
@@ -5294,13 +5361,13 @@
         <v>-4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5327,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5348,13 +5415,13 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5509,10 +5576,10 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>3</v>
@@ -5530,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5691,7 +5758,7 @@
         <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
@@ -5721,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
         <v>18.1</v>
@@ -5801,22 +5868,22 @@
         <v>23.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
         <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.4</v>
@@ -5825,25 +5892,25 @@
         <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5855,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5894,16 +5961,16 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6052,13 +6119,13 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6085,19 +6152,19 @@
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BC31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-30-2012-13</t>
+          <t>2013-03-30</t>
         </is>
       </c>
     </row>
